--- a/March'21/28.03.2021/Market Due.xlsx
+++ b/March'21/28.03.2021/Market Due.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="420" windowWidth="19815" windowHeight="7665" firstSheet="7" activeTab="21"/>
+    <workbookView xWindow="480" yWindow="420" windowWidth="19815" windowHeight="7665" firstSheet="7" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="01" sheetId="1" r:id="rId1"/>
@@ -7763,8 +7763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8208,8 +8208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8267,12 +8267,12 @@
         <v>40</v>
       </c>
       <c r="B4" s="28">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="28">
         <f t="shared" ref="D4:D23" si="0">B4-C4</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E4" s="41"/>
     </row>
@@ -8281,12 +8281,12 @@
         <v>41</v>
       </c>
       <c r="B5" s="28">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C5" s="28"/>
       <c r="D5" s="28">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E5" s="41"/>
     </row>
@@ -8295,12 +8295,12 @@
         <v>42</v>
       </c>
       <c r="B6" s="28">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="28">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E6" s="41"/>
     </row>
@@ -8308,13 +8308,11 @@
       <c r="A7" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="28">
-        <v>5</v>
-      </c>
+      <c r="B7" s="28"/>
       <c r="C7" s="45"/>
       <c r="D7" s="28">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E7" s="41"/>
       <c r="G7" s="34"/>
@@ -8323,13 +8321,11 @@
       <c r="A8" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="28">
-        <v>10</v>
-      </c>
+      <c r="B8" s="28"/>
       <c r="C8" s="28"/>
       <c r="D8" s="28">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E8" s="37"/>
       <c r="G8" s="34"/>
@@ -8339,13 +8335,11 @@
       <c r="A9" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="28">
-        <v>5</v>
-      </c>
+      <c r="B9" s="28"/>
       <c r="C9" s="28"/>
       <c r="D9" s="28">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E9" s="37"/>
     </row>
@@ -8353,13 +8347,11 @@
       <c r="A10" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="28">
-        <v>15</v>
-      </c>
+      <c r="B10" s="28"/>
       <c r="C10" s="28"/>
       <c r="D10" s="28">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E10" s="37"/>
     </row>
@@ -8367,13 +8359,11 @@
       <c r="A11" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="28">
-        <v>20</v>
-      </c>
+      <c r="B11" s="28"/>
       <c r="C11" s="28"/>
       <c r="D11" s="28">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E11" s="37"/>
     </row>
@@ -8381,13 +8371,11 @@
       <c r="A12" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="28">
-        <v>20</v>
-      </c>
+      <c r="B12" s="28"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E12" s="37"/>
     </row>
@@ -8395,13 +8383,11 @@
       <c r="A13" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="28">
-        <v>5</v>
-      </c>
+      <c r="B13" s="28"/>
       <c r="C13" s="36"/>
       <c r="D13" s="28">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E13" s="37"/>
     </row>
@@ -8409,13 +8395,11 @@
       <c r="A14" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="28">
-        <v>10</v>
-      </c>
+      <c r="B14" s="28"/>
       <c r="C14" s="28"/>
       <c r="D14" s="28">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E14" s="37"/>
     </row>
@@ -8423,13 +8407,11 @@
       <c r="A15" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="28">
-        <v>10</v>
-      </c>
+      <c r="B15" s="28"/>
       <c r="C15" s="28"/>
       <c r="D15" s="28">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E15" s="37"/>
     </row>
@@ -8437,13 +8419,11 @@
       <c r="A16" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="28">
-        <v>10</v>
-      </c>
+      <c r="B16" s="28"/>
       <c r="C16" s="28"/>
       <c r="D16" s="28">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E16" s="41"/>
     </row>
@@ -8451,13 +8431,11 @@
       <c r="A17" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="28">
-        <v>5</v>
-      </c>
+      <c r="B17" s="28"/>
       <c r="C17" s="45"/>
       <c r="D17" s="28">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E17" s="41"/>
     </row>
@@ -8465,13 +8443,11 @@
       <c r="A18" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="28">
-        <v>10</v>
-      </c>
+      <c r="B18" s="28"/>
       <c r="C18" s="28"/>
       <c r="D18" s="28">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E18" s="37"/>
     </row>
@@ -8479,13 +8455,11 @@
       <c r="A19" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="28">
-        <v>5</v>
-      </c>
+      <c r="B19" s="28"/>
       <c r="C19" s="28"/>
       <c r="D19" s="28">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E19" s="41"/>
     </row>
@@ -8493,13 +8467,11 @@
       <c r="A20" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="28">
-        <v>15</v>
-      </c>
+      <c r="B20" s="28"/>
       <c r="C20" s="28"/>
       <c r="D20" s="28">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E20" s="41"/>
     </row>
@@ -8507,13 +8479,11 @@
       <c r="A21" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="28">
-        <v>15</v>
-      </c>
+      <c r="B21" s="28"/>
       <c r="C21" s="28"/>
       <c r="D21" s="28">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E21" s="37"/>
     </row>
@@ -8521,13 +8491,11 @@
       <c r="A22" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="33">
-        <v>10</v>
-      </c>
+      <c r="B22" s="33"/>
       <c r="C22" s="45"/>
       <c r="D22" s="28">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E22" s="28"/>
     </row>
@@ -8535,13 +8503,11 @@
       <c r="A23" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="28">
-        <v>15</v>
-      </c>
+      <c r="B23" s="28"/>
       <c r="C23" s="28"/>
       <c r="D23" s="28">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E23" s="37"/>
     </row>
@@ -8551,7 +8517,7 @@
       </c>
       <c r="B24" s="39">
         <f>SUM(B3:B23)</f>
-        <v>215</v>
+        <v>52</v>
       </c>
       <c r="C24" s="39">
         <f>SUM(C3:C23)</f>
@@ -8559,7 +8525,7 @@
       </c>
       <c r="D24" s="39">
         <f>SUM(D3:D23)</f>
-        <v>215</v>
+        <v>52</v>
       </c>
       <c r="E24" s="40"/>
     </row>
